--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="E34" s="7" t="n"/>
     </row>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D35" s="9" t="n">
-        <v>117</v>
+        <v>307.2</v>
       </c>
       <c r="E35" s="7" t="n"/>
     </row>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D36" s="9" t="n">
-        <v>134.6</v>
+        <v>340.5</v>
       </c>
       <c r="E36" s="7" t="n"/>
     </row>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="D37" s="9" t="n">
-        <v>114.7</v>
+        <v>289</v>
       </c>
       <c r="E37" s="7" t="n"/>
     </row>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D38" s="9" t="n">
-        <v>128.7</v>
+        <v>326.5</v>
       </c>
       <c r="E38" s="7" t="n"/>
     </row>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D39" s="9" t="n">
-        <v>160.3</v>
+        <v>368.6</v>
       </c>
       <c r="E39" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="E34" s="7" t="n"/>
     </row>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D35" s="9" t="n">
-        <v>307.2</v>
+        <v>117</v>
       </c>
       <c r="E35" s="7" t="n"/>
     </row>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D36" s="9" t="n">
-        <v>340.5</v>
+        <v>134.6</v>
       </c>
       <c r="E36" s="7" t="n"/>
     </row>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="D37" s="9" t="n">
-        <v>289</v>
+        <v>114.7</v>
       </c>
       <c r="E37" s="7" t="n"/>
     </row>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D38" s="9" t="n">
-        <v>326.5</v>
+        <v>128.7</v>
       </c>
       <c r="E38" s="7" t="n"/>
     </row>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D39" s="9" t="n">
-        <v>368.6</v>
+        <v>160.3</v>
       </c>
       <c r="E39" s="7" t="n"/>
     </row>

--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">

--- a/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
+++ b/server/LISTAS/mi/MINI RODILLOS DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="19" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" s="1">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="D34" s="9" t="n">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="E34" s="7" t="n"/>
     </row>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="D35" s="9" t="n">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="E35" s="7" t="n"/>
     </row>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D36" s="9" t="n">
-        <v>134.6</v>
+        <v>457</v>
       </c>
       <c r="E36" s="7" t="n"/>
     </row>
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="D37" s="9" t="n">
-        <v>114.7</v>
+        <v>411</v>
       </c>
       <c r="E37" s="7" t="n"/>
     </row>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="D38" s="9" t="n">
-        <v>128.7</v>
+        <v>445</v>
       </c>
       <c r="E38" s="7" t="n"/>
     </row>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D39" s="9" t="n">
-        <v>160.3</v>
+        <v>505</v>
       </c>
       <c r="E39" s="7" t="n"/>
     </row>
